--- a/smartclassonlinesel/FlipLearn/TestData/LoginData/gitURL_excel.xlsx
+++ b/smartclassonlinesel/FlipLearn/TestData/LoginData/gitURL_excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -124,88 +124,88 @@
     <t>Admin_Batchreport_URL</t>
   </si>
   <si>
-    <t>http://gitrelease.smartclassonline.com/site/home</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/wallPosts</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/messages</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/pictureGallery</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/events/index</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/announcements/myannouncements</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/attendance/report</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/marks/studentReport?uuid=142759&amp;gid=5623</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/Dashboard</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/user/directory</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/user/Tdirectory</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/attendance/mark</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/attendance/reports</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/assignment/index</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/ActivityReview/index?school=78&amp;class=5595&amp;section=5619</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/Marks/ClassWiseReport</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/healthStatus/index?school=78&amp;class=5595&amp;section=5619</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/subject/11?level_id=9&amp;sid=5619</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/announcements/index</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/user/admin</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/user/RollNo</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/user/BulkSection</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/competency/admin</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/grade/admin</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/evaluation/admin</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/index.php/Batchreports/admin</t>
-  </si>
-  <si>
-    <t>http://gitrelease.smartclassonline.com/site/login</t>
+    <t>http://int.fliplearn.com/index.php/wallPosts</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/messages</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/pictureGallery</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/events/index</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/announcements/myannouncements</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/attendance/report</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/marks/studentReport?uuid=142759&amp;gid=5623</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/Dashboard</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/user/directory</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/user/Tdirectory</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/attendance/mark</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/attendance/reports</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/assignment/index</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/ActivityReview/index?school=78&amp;class=5595&amp;section=5619</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/Marks/ClassWiseReport</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/healthStatus/index?school=78&amp;class=5595&amp;section=5619</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/subject/11?level_id=9&amp;sid=5619</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/announcements/index</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/user/admin</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/user/RollNo</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/user/BulkSection</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/competency/admin</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/grade/admin</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/evaluation/admin</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php/Batchreports/admin</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/site/login</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/site/home</t>
+  </si>
+  <si>
+    <t>http://int.fliplearn.com/index.php</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,94 +716,94 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -813,30 +813,30 @@
     <hyperlink ref="C2" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="E2" r:id="rId5"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="G2" r:id="rId7"/>
-    <hyperlink ref="H2" r:id="rId8"/>
-    <hyperlink ref="I2" r:id="rId9"/>
-    <hyperlink ref="J2" r:id="rId10"/>
-    <hyperlink ref="N2" r:id="rId11"/>
-    <hyperlink ref="O2" r:id="rId12"/>
-    <hyperlink ref="P2" r:id="rId13"/>
-    <hyperlink ref="Q2" r:id="rId14"/>
-    <hyperlink ref="R2" r:id="rId15"/>
-    <hyperlink ref="S2" r:id="rId16"/>
-    <hyperlink ref="T2" r:id="rId17"/>
-    <hyperlink ref="U2" r:id="rId18"/>
-    <hyperlink ref="V2" r:id="rId19"/>
-    <hyperlink ref="W2" r:id="rId20"/>
-    <hyperlink ref="AA2" r:id="rId21"/>
-    <hyperlink ref="AB2" r:id="rId22"/>
-    <hyperlink ref="AC2" r:id="rId23"/>
-    <hyperlink ref="AD2" r:id="rId24"/>
-    <hyperlink ref="AF2" r:id="rId25"/>
-    <hyperlink ref="AG2" r:id="rId26"/>
-    <hyperlink ref="AH2" r:id="rId27"/>
-    <hyperlink ref="AI2" r:id="rId28"/>
-    <hyperlink ref="AJ2" r:id="rId29"/>
+    <hyperlink ref="F2" r:id="rId6" display="http://gitrelease.smartclassonline.com/index.php/events/index"/>
+    <hyperlink ref="G2" r:id="rId7" display="http://gitrelease.smartclassonline.com/index.php/announcements/myannouncements"/>
+    <hyperlink ref="H2" r:id="rId8" display="http://gitrelease.smartclassonline.com/index.php/attendance/report"/>
+    <hyperlink ref="I2" r:id="rId9" display="http://gitrelease.smartclassonline.com/index.php/marks/studentReport?uuid=142759&amp;gid=5623"/>
+    <hyperlink ref="J2" r:id="rId10" display="http://gitrelease.smartclassonline.com/index.php/Dashboard"/>
+    <hyperlink ref="N2" r:id="rId11" display="http://gitrelease.smartclassonline.com/index.php/user/directory"/>
+    <hyperlink ref="O2" r:id="rId12" display="http://gitrelease.smartclassonline.com/index.php/user/Tdirectory"/>
+    <hyperlink ref="P2" r:id="rId13" display="http://gitrelease.smartclassonline.com/index.php/attendance/mark"/>
+    <hyperlink ref="Q2" r:id="rId14" display="http://gitrelease.smartclassonline.com/index.php/attendance/reports"/>
+    <hyperlink ref="R2" r:id="rId15" display="http://gitrelease.smartclassonline.com/index.php/assignment/index"/>
+    <hyperlink ref="S2" r:id="rId16" display="http://gitrelease.smartclassonline.com/index.php/ActivityReview/index?school=78&amp;class=5595&amp;section=5619"/>
+    <hyperlink ref="T2" r:id="rId17" display="http://gitrelease.smartclassonline.com/index.php/Marks/ClassWiseReport"/>
+    <hyperlink ref="U2" r:id="rId18" display="http://gitrelease.smartclassonline.com/index.php/healthStatus/index?school=78&amp;class=5595&amp;section=5619"/>
+    <hyperlink ref="V2" r:id="rId19" display="http://gitrelease.smartclassonline.com/index.php/subject/11?level_id=9&amp;sid=5619"/>
+    <hyperlink ref="W2" r:id="rId20" display="http://gitrelease.smartclassonline.com/index.php/announcements/index"/>
+    <hyperlink ref="AA2" r:id="rId21" display="http://gitrelease.smartclassonline.com/index.php/user/admin"/>
+    <hyperlink ref="AB2" r:id="rId22" display="http://gitrelease.smartclassonline.com/index.php/user/RollNo"/>
+    <hyperlink ref="AC2" r:id="rId23" display="http://gitrelease.smartclassonline.com/index.php/announcements/index"/>
+    <hyperlink ref="AD2" r:id="rId24" display="http://gitrelease.smartclassonline.com/index.php/attendance/mark"/>
+    <hyperlink ref="AF2" r:id="rId25" display="http://gitrelease.smartclassonline.com/index.php/user/BulkSection"/>
+    <hyperlink ref="AG2" r:id="rId26" display="http://gitrelease.smartclassonline.com/index.php/competency/admin"/>
+    <hyperlink ref="AH2" r:id="rId27" display="http://gitrelease.smartclassonline.com/index.php/grade/admin"/>
+    <hyperlink ref="AI2" r:id="rId28" display="http://gitrelease.smartclassonline.com/index.php/evaluation/admin"/>
+    <hyperlink ref="AJ2" r:id="rId29" display="http://gitrelease.smartclassonline.com/index.php/Batchreports/admin"/>
     <hyperlink ref="AE2" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
